--- a/src/main/resources/users_for_import_liferay.xlsx
+++ b/src/main/resources/users_for_import_liferay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32880" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32960" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UsersToImport" sheetId="1" r:id="rId1"/>
@@ -593,7 +593,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
